--- a/docs/StructureDefinition-ProcedureSurgeryProcedure.xlsx
+++ b/docs/StructureDefinition-ProcedureSurgeryProcedure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ProcedureSurgeryProcedure.xlsx
+++ b/docs/StructureDefinition-ProcedureSurgeryProcedure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ProcedureSurgeryProcedure.xlsx
+++ b/docs/StructureDefinition-ProcedureSurgeryProcedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ProcedureSurgeryProcedure.xlsx
+++ b/docs/StructureDefinition-ProcedureSurgeryProcedure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ProcedureSurgeryProcedure.xlsx
+++ b/docs/StructureDefinition-ProcedureSurgeryProcedure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -906,7 +906,8 @@
     <t>1344-1: source value based on SURGERY - PLANNED PRIN PROCEDURE CODE &gt; CPT - CPT CODE (130-27 &gt; 81-.01)</t>
   </si>
   <si>
-    <t>Dim.CPT.CPTCode,Dim.CPT.CPTCode</t>
+    <t>Dim.CPT.CPTCode
+Dim.CPT.CPTCode</t>
   </si>
   <si>
     <t>./code</t>
@@ -933,7 +934,8 @@
     <t>1344-3: source value based on SURGERY - PLANNED PRIN PROCEDURE CODE &gt; CPT - SHORT NAME (130-27 &gt; 81-2)</t>
   </si>
   <si>
-    <t>Dim.CPT.CPTName,Dim.CPT.CPTName</t>
+    <t>Dim.CPT.CPTName
+Dim.CPT.CPTName</t>
   </si>
   <si>
     <t>CV.displayName</t>
@@ -1002,7 +1004,50 @@
     <t>1287: reference based on SURGERY - PATIENT (130-.01)</t>
   </si>
   <si>
-    <t>SPatient.ImplantedProsthesis.PatientIEN,SPatient.OperationsIndication.PatientIEN,Surg.AnesthesiaAgent.PatientIEN,Surg.AnesthesiaBlockSite.PatientIEN,Surg.AnesthesiaTechnique.PatientIEN,Surg.AnesthesiaTestDose.PatientIEN,Surg.ReferringPhysician.PatientIEN,Surg.ReferringPhysician.PatientSID,Surg.ReplacementFluidType.PatientIEN,Surg.ReplacementFluidType.PatientSID,Surg.SurgeryAssistant.PatientIEN,Surg.SurgeryAssistantOther.PatientIEN,Surg.SurgeryDelay.PatientIEN,Surg.SurgeryINTRA.PatientIEN,Surg.SurgeryIrrigation.PatientIEN,Surg.SurgeryIrrigation.PatientSID,Surg.SurgeryMedication.PatientIEN,Surg.SurgeryOccurrenceNonOp.PatientIEN,Surg.SurgeryOccurrenceNonOp.PatientSID,Surg.SurgeryOtherPostOpDiagnosis.PatientIEN,Surg.SurgeryOtherProcedure.PatientIEN,Surg.SurgeryOtherProcedureCPTModifier.PatientIEN,Surg.SurgeryOtherProcedureCPTModifier.PatientSID,Surg.SurgeryOtherProcedureDiagnosis.PatientIEN,Surg.SurgeryPOST.PatientIEN,Surg.SurgeryPostOpDiagnosis.PatientIEN,Surg.SurgeryPreOpDiagnosis.PatientIEN,Surg.SurgeryPreOpDiagnosis.PatientSID,Surg.SurgeryPrincipalAssociatedDiagnosis.PatientIEN,Surg.SurgeryPrincipalAssociatedProcedure.PatientIEN,Surg.SurgeryPrincipalCPTModifier.PatientIEN,Surg.SurgeryPrincipalDiagnosis.PatientIEN,Surg.SurgeryProcedureCPTModifier.PatientIEN,Surg.SurgeryProcedureDiagnosisCode.PatientIEN,Surg.SurgeryProcedureOccurrence.PatientIEN,Surg.SurgeryProcedureOccurrence.PatientSID,Surg.SurgeryRequiredBloodProducts.PatientIEN,Surg.SurgeryReturnCase.PatientIEN,Surg.SurgORCircSupport.PatientIEN,Surg.SurgORCircSupportTime.PatientIEN,Surg.SurgORCircSupportTime.PatientSID,Surg.SurgORScrubSupport.PatientIEN,Surg.SurgORScrubSupportTime.PatientIEN,Surg.SurgORScrubSupportTime.PatientSID</t>
+    <t>SPatient.ImplantedProsthesis.PatientIEN
+SPatient.OperationsIndication.PatientIEN
+Surg.AnesthesiaAgent.PatientIEN
+Surg.AnesthesiaBlockSite.PatientIEN
+Surg.AnesthesiaTechnique.PatientIEN
+Surg.AnesthesiaTestDose.PatientIEN
+Surg.ReferringPhysician.PatientIEN
+Surg.ReferringPhysician.PatientSID
+Surg.ReplacementFluidType.PatientIEN
+Surg.ReplacementFluidType.PatientSID
+Surg.SurgeryAssistant.PatientIEN
+Surg.SurgeryAssistantOther.PatientIEN
+Surg.SurgeryDelay.PatientIEN
+Surg.SurgeryINTRA.PatientIEN
+Surg.SurgeryIrrigation.PatientIEN
+Surg.SurgeryIrrigation.PatientSID
+Surg.SurgeryMedication.PatientIEN
+Surg.SurgeryOccurrenceNonOp.PatientIEN
+Surg.SurgeryOccurrenceNonOp.PatientSID
+Surg.SurgeryOtherPostOpDiagnosis.PatientIEN
+Surg.SurgeryOtherProcedure.PatientIEN
+Surg.SurgeryOtherProcedureCPTModifier.PatientIEN
+Surg.SurgeryOtherProcedureCPTModifier.PatientSID
+Surg.SurgeryOtherProcedureDiagnosis.PatientIEN
+Surg.SurgeryPOST.PatientIEN
+Surg.SurgeryPostOpDiagnosis.PatientIEN
+Surg.SurgeryPreOpDiagnosis.PatientIEN
+Surg.SurgeryPreOpDiagnosis.PatientSID
+Surg.SurgeryPrincipalAssociatedDiagnosis.PatientIEN
+Surg.SurgeryPrincipalAssociatedProcedure.PatientIEN
+Surg.SurgeryPrincipalCPTModifier.PatientIEN
+Surg.SurgeryPrincipalDiagnosis.PatientIEN
+Surg.SurgeryProcedureCPTModifier.PatientIEN
+Surg.SurgeryProcedureDiagnosisCode.PatientIEN
+Surg.SurgeryProcedureOccurrence.PatientIEN
+Surg.SurgeryProcedureOccurrence.PatientSID
+Surg.SurgeryRequiredBloodProducts.PatientIEN
+Surg.SurgeryReturnCase.PatientIEN
+Surg.SurgORCircSupport.PatientIEN
+Surg.SurgORCircSupportTime.PatientIEN
+Surg.SurgORCircSupportTime.PatientSID
+Surg.SurgORScrubSupport.PatientIEN
+Surg.SurgORScrubSupportTime.PatientIEN
+Surg.SurgORScrubSupportTime.PatientSID</t>
   </si>
   <si>
     <t>Procedure.Procedure[CodeTableDetail.Procedure].Code</t>
@@ -1102,7 +1147,42 @@
     <t>1286: source value based on SURGERY - DATE OF OPERATION (130-.09)</t>
   </si>
   <si>
-    <t>SPatient.ImplantedProsthesis.SurgeryDateTime,SPatient.OperationsIndication.SurgeryDateTime,Surg.AnesthesiaAgent.SurgeryDateTime,Surg.AnesthesiaBlockSite.SurgeryDateTime,Surg.AnesthesiaTechnique.SurgeryDateTime,Surg.AnesthesiaTestDose.SurgeryDateTime,Surg.ReferringPhysician.SurgeryDateTime,Surg.ReplacementFluidType.SurgeryDateTime,Surg.SurgeryAssistant.SurgeryDateTime,Surg.SurgeryAssistantOther.SurgeryDateTime,Surg.SurgeryDelay.SurgeryDateTime,Surg.SurgeryINTRA.SurgeryDateTime,Surg.SurgeryIrrigation.SurgeryDateTime,Surg.SurgeryMedication.SurgeryDateTime,Surg.SurgeryOccurrenceNonOp.SurgeryDateTime,Surg.SurgeryOtherPostOpDiagnosis.SurgeryDateTime,Surg.SurgeryOtherProcedure.SurgeryDateTime,Surg.SurgeryOtherProcedureCPTModifier.SurgeryDateTime,Surg.SurgeryOtherProcedureDiagnosis.SurgeryDateTime,Surg.SurgeryPOST.SurgeryDateTime,Surg.SurgeryPostOpDiagnosis.SurgeryDateTime,Surg.SurgeryPRE.SurgeryDateTime,Surg.SurgeryPreOpDiagnosis.SurgeryDateTime,Surg.SurgeryPrincipalAssociatedDiagnosis.SurgeryDateTime,Surg.SurgeryPrincipalAssociatedProcedure.SurgeryDateTime,Surg.SurgeryPrincipalCPTModifier.SurgeryDateTime,Surg.SurgeryPrincipalDiagnosis.SurgeryDateTime,Surg.SurgeryProcedureCPTModifier.SurgeryDateTime,Surg.SurgeryProcedureDiagnosisCode.SurgeryDateTime,Surg.SurgeryProcedureOccurrence.SurgeryDateTime,Surg.SurgeryRequiredBloodProducts.SurgeryDateTime,Surg.SurgeryReturnCase.SurgeryDateTime,Surg.SurgORCircSupport.SurgeryDateTime,Surg.SurgORCircSupportTime.SurgeryDateTime,Surg.SurgORScrubSupport.SurgeryDateTime,Surg.SurgORScrubSupportTime.SurgeryDateTime</t>
+    <t>SPatient.ImplantedProsthesis.SurgeryDateTime
+SPatient.OperationsIndication.SurgeryDateTime
+Surg.AnesthesiaAgent.SurgeryDateTime
+Surg.AnesthesiaBlockSite.SurgeryDateTime
+Surg.AnesthesiaTechnique.SurgeryDateTime
+Surg.AnesthesiaTestDose.SurgeryDateTime
+Surg.ReferringPhysician.SurgeryDateTime
+Surg.ReplacementFluidType.SurgeryDateTime
+Surg.SurgeryAssistant.SurgeryDateTime
+Surg.SurgeryAssistantOther.SurgeryDateTime
+Surg.SurgeryDelay.SurgeryDateTime
+Surg.SurgeryINTRA.SurgeryDateTime
+Surg.SurgeryIrrigation.SurgeryDateTime
+Surg.SurgeryMedication.SurgeryDateTime
+Surg.SurgeryOccurrenceNonOp.SurgeryDateTime
+Surg.SurgeryOtherPostOpDiagnosis.SurgeryDateTime
+Surg.SurgeryOtherProcedure.SurgeryDateTime
+Surg.SurgeryOtherProcedureCPTModifier.SurgeryDateTime
+Surg.SurgeryOtherProcedureDiagnosis.SurgeryDateTime
+Surg.SurgeryPOST.SurgeryDateTime
+Surg.SurgeryPostOpDiagnosis.SurgeryDateTime
+Surg.SurgeryPRE.SurgeryDateTime
+Surg.SurgeryPreOpDiagnosis.SurgeryDateTime
+Surg.SurgeryPrincipalAssociatedDiagnosis.SurgeryDateTime
+Surg.SurgeryPrincipalAssociatedProcedure.SurgeryDateTime
+Surg.SurgeryPrincipalCPTModifier.SurgeryDateTime
+Surg.SurgeryPrincipalDiagnosis.SurgeryDateTime
+Surg.SurgeryProcedureCPTModifier.SurgeryDateTime
+Surg.SurgeryProcedureDiagnosisCode.SurgeryDateTime
+Surg.SurgeryProcedureOccurrence.SurgeryDateTime
+Surg.SurgeryRequiredBloodProducts.SurgeryDateTime
+Surg.SurgeryReturnCase.SurgeryDateTime
+Surg.SurgORCircSupport.SurgeryDateTime
+Surg.SurgORCircSupportTime.SurgeryDateTime
+Surg.SurgORScrubSupport.SurgeryDateTime
+Surg.SurgORScrubSupportTime.SurgeryDateTime</t>
   </si>
   <si>
     <t>Procedure.ProcedureTime</t>
@@ -1162,7 +1242,8 @@
     <t>1292: source value based on SURGERY - TIME OPERATION BEGAN (130-.22) if 130-118 NON-OR PROCEDURE != ‘Y’</t>
   </si>
   <si>
-    <t>Surg.SurgeryINTRA.BeginOperationDateTime,Surg.SurgeryPRE.BeginOperationDateTime</t>
+    <t>Surg.SurgeryINTRA.BeginOperationDateTime
+Surg.SurgeryPRE.BeginOperationDateTime</t>
   </si>
   <si>
     <t>./low</t>
@@ -1199,7 +1280,8 @@
     <t>1293: source value based on SURGERY - TIME OPERATION ENDS (130-.23) if 130-118 NON-OR PROCEDURE != ‘Y’</t>
   </si>
   <si>
-    <t>Surg.SurgeryINTRA.EndOperationDateTime,Surg.SurgeryPRE.EndOperationDateTime</t>
+    <t>Surg.SurgeryINTRA.EndOperationDateTime
+Surg.SurgeryPRE.EndOperationDateTime</t>
   </si>
   <si>
     <t>./high</t>
@@ -2225,7 +2307,8 @@
     <t>1295: reference based on SURGERY - OP ROOM PROCEDURE PERFORMED (130-.02) if 130-118 NON-OR PROCEDURE != ‘Y’</t>
   </si>
   <si>
-    <t>Surg.SurgeryINTRA.OperatingRoomIEN,Surg.SurgeryPOST.OperatingRoomIEN</t>
+    <t>Surg.SurgeryINTRA.OperatingRoomIEN
+Surg.SurgeryPOST.OperatingRoomIEN</t>
   </si>
   <si>
     <t>.participation[typeCode=LOC].role[classCode=SDLOC]</t>
@@ -2927,7 +3010,7 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="120.54296875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="48.78515625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="48.90234375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="39.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="25.4609375" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-ProcedureSurgeryProcedure.xlsx
+++ b/docs/StructureDefinition-ProcedureSurgeryProcedure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ProcedureSurgeryProcedure.xlsx
+++ b/docs/StructureDefinition-ProcedureSurgeryProcedure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
